--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_3.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_0</t>
+          <t>model_24_3_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999580847223655</v>
+        <v>0.9999640191034121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990455382354714</v>
+        <v>0.9989964818364621</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999910044000426</v>
+        <v>0.9998487520335869</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998557921285031</v>
+        <v>0.999878701250829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998643252813224</v>
+        <v>0.9998831722122962</v>
       </c>
       <c r="G2" t="n">
-        <v>3.91260718037909e-05</v>
+        <v>3.358658758595002e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008909481611581409</v>
+        <v>0.0009367401563063194</v>
       </c>
       <c r="I2" t="n">
-        <v>1.163672443137257e-05</v>
+        <v>6.050011480294508e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001447633537501309</v>
+        <v>0.0001036751843577578</v>
       </c>
       <c r="K2" t="n">
-        <v>7.820003909075176e-05</v>
+        <v>8.208764958035141e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004273306725627516</v>
+        <v>0.0003925830715098735</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006255083676801687</v>
+        <v>0.005795393652371685</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000059174509602</v>
+        <v>1.000050796559889</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006521375538731382</v>
+        <v>0.006042115558271862</v>
       </c>
       <c r="P2" t="n">
-        <v>102.2974430302662</v>
+        <v>102.6027674993557</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.2713518498624</v>
+        <v>152.5766763189519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_1</t>
+          <t>model_24_3_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999634128393562</v>
+        <v>0.9999611678556837</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990453038572019</v>
+        <v>0.9989964648726746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999397273431091</v>
+        <v>0.9998085833458016</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998663769094752</v>
+        <v>0.9998678233241047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998768737947948</v>
+        <v>0.9998651222447829</v>
       </c>
       <c r="G3" t="n">
-        <v>3.415250847028899e-05</v>
+        <v>3.624810218510898e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008911669429846718</v>
+        <v>0.000936755991257234</v>
       </c>
       <c r="I3" t="n">
-        <v>7.796881834542363e-06</v>
+        <v>7.656783644002813e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001341378006764278</v>
+        <v>0.0001129726508714039</v>
       </c>
       <c r="K3" t="n">
-        <v>7.096734125548505e-05</v>
+        <v>9.477024365571605e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003981034356688482</v>
+        <v>0.0003990066365759661</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00584401475616626</v>
+        <v>0.006020639682385002</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000051652462085</v>
+        <v>1.000054821850799</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006092806563114532</v>
+        <v>0.006276950778106407</v>
       </c>
       <c r="P3" t="n">
-        <v>102.5693490403421</v>
+        <v>102.4502470630966</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.5432578599384</v>
+        <v>152.4241558826929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_2</t>
+          <t>model_24_3_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999675234170187</v>
+        <v>0.9999580887762831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990442380522077</v>
+        <v>0.9989959395820878</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999607946875492</v>
+        <v>0.9997680863492042</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998740930523674</v>
+        <v>0.9998574982627293</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998859572740736</v>
+        <v>0.9998473150862683</v>
       </c>
       <c r="G4" t="n">
-        <v>3.031546465579564e-05</v>
+        <v>3.912228764960919e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008921618251633867</v>
+        <v>0.0009372463269624247</v>
       </c>
       <c r="I4" t="n">
-        <v>5.071606334176731e-06</v>
+        <v>9.276688361678452e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001263919355478236</v>
+        <v>0.000121797578159773</v>
       </c>
       <c r="K4" t="n">
-        <v>6.573181586355744e-05</v>
+        <v>0.0001072822308882788</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003715605038348469</v>
+        <v>0.0004047212309893792</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005505948115973818</v>
+        <v>0.006254781183191718</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000045849293621</v>
+        <v>1.000059168786424</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005740347726154677</v>
+        <v>0.00652106016734219</v>
       </c>
       <c r="P4" t="n">
-        <v>102.8077051819424</v>
+        <v>102.2976364735133</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7816140015386</v>
+        <v>152.2715452931096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_3</t>
+          <t>model_24_3_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999970668831804</v>
+        <v>0.9999664696265942</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990425229105091</v>
+        <v>0.9989957901734712</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999754289123693</v>
+        <v>0.9998873453589135</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998795919854375</v>
+        <v>0.9998900130684599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998923881922666</v>
+        <v>0.999901037658062</v>
       </c>
       <c r="G5" t="n">
-        <v>2.737935802153843e-05</v>
+        <v>3.129913176104457e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008937628346529225</v>
+        <v>0.0009373857933478158</v>
       </c>
       <c r="I5" t="n">
-        <v>3.178520355405541e-06</v>
+        <v>4.506254781766743e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001208718208342189</v>
+        <v>9.400686719600407e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.202517059481222e-05</v>
+        <v>6.953470750683575e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003475564185248279</v>
+        <v>0.0003853837160896538</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005232528836187951</v>
+        <v>0.005594562696140296</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000041408708041</v>
+        <v>1.000047336997749</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005455288421572389</v>
+        <v>0.005832734812456311</v>
       </c>
       <c r="P5" t="n">
-        <v>103.0114423707286</v>
+        <v>102.7438404001333</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.9853511903248</v>
+        <v>152.7177492197295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_4</t>
+          <t>model_24_3_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999730602086859</v>
+        <v>0.9999549095131617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990404027003961</v>
+        <v>0.9989950628717981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999850783451486</v>
+        <v>0.9997281837950894</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9998833908412408</v>
+        <v>0.9998477856638012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998967791767306</v>
+        <v>0.9998300496419853</v>
       </c>
       <c r="G6" t="n">
-        <v>2.514711267152941e-05</v>
+        <v>4.208999021999321e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008957419577269499</v>
+        <v>0.0009380646975347915</v>
       </c>
       <c r="I6" t="n">
-        <v>1.930267979776283e-06</v>
+        <v>0.0001087281501523354</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001170583320087831</v>
+        <v>0.0001300990280209776</v>
       </c>
       <c r="K6" t="n">
-        <v>5.949429999427967e-05</v>
+        <v>0.0001194135890866565</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003259560358344101</v>
+        <v>0.0004097750645240891</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00501468968845824</v>
+        <v>0.006487679879586631</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000038032646561</v>
+        <v>1.000063657157889</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005228175410334624</v>
+        <v>0.0067638738434094</v>
       </c>
       <c r="P6" t="n">
-        <v>103.181534944644</v>
+        <v>102.1514012150824</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.1554437642402</v>
+        <v>152.1253100346786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_5</t>
+          <t>model_24_3_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999748589064646</v>
+        <v>0.9999682988192153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990380416691343</v>
+        <v>0.9989941324153174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999909823218281</v>
+        <v>0.999922724389976</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999885910094588</v>
+        <v>0.9999015851310834</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998996355418287</v>
+        <v>0.9999181464528211</v>
       </c>
       <c r="G7" t="n">
-        <v>2.346810724875373e-05</v>
+        <v>2.959166074146372e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008979458767724996</v>
+        <v>0.0009389332378171285</v>
       </c>
       <c r="I7" t="n">
-        <v>1.166528484969398e-06</v>
+        <v>3.091071826482943e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001145293746105363</v>
+        <v>8.411611618593622e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>5.784795154775287e-05</v>
+        <v>5.751341722538282e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000306781988792769</v>
+        <v>0.0003772580390684894</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004844389254462705</v>
+        <v>0.005439821756405601</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00003549330852</v>
+        <v>1.000044754608167</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005050624934293401</v>
+        <v>0.005671406230559206</v>
       </c>
       <c r="P7" t="n">
-        <v>103.3197363938227</v>
+        <v>102.8560359360708</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.293645213419</v>
+        <v>152.829944755667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_6</t>
+          <t>model_24_3_10</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999761909255555</v>
+        <v>0.9999517163836117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990355089653215</v>
+        <v>0.9989939510310933</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999940990051346</v>
+        <v>0.9996894447891398</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999887431390113</v>
+        <v>0.9998387140331726</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999013100742881</v>
+        <v>0.9998135052432298</v>
       </c>
       <c r="G8" t="n">
-        <v>2.222472589640953e-05</v>
+        <v>4.507063649267194e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009003100446089607</v>
+        <v>0.0009391025520284445</v>
       </c>
       <c r="I8" t="n">
-        <v>7.633537667820123e-07</v>
+        <v>0.0001242239902808747</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001130022191234009</v>
+        <v>0.0001378526362342952</v>
       </c>
       <c r="K8" t="n">
-        <v>5.688278644509147e-05</v>
+        <v>0.000131038313257585</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002896637161740807</v>
+        <v>0.0004142853032307783</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004714310755180393</v>
+        <v>0.006713466801338332</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000033612810981</v>
+        <v>1.000068165105489</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004915008723997027</v>
+        <v>0.006999272981863431</v>
       </c>
       <c r="P8" t="n">
-        <v>103.4286102195206</v>
+        <v>102.0145591980958</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.4025190391168</v>
+        <v>151.988468017692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_7</t>
+          <t>model_24_3_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999771602634868</v>
+        <v>0.9999485820522761</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990329351803221</v>
+        <v>0.9989926903809465</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999951382310043</v>
+        <v>0.9996523562251936</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999888208738769</v>
+        <v>0.999830299029667</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999021036299558</v>
+        <v>0.9997978300062801</v>
       </c>
       <c r="G9" t="n">
-        <v>2.131989148646067e-05</v>
+        <v>4.799639721316447e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009027125599297468</v>
+        <v>0.0009402793136043682</v>
       </c>
       <c r="I9" t="n">
-        <v>6.289193196740423e-07</v>
+        <v>0.0001390596434789867</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001122218761552398</v>
+        <v>0.0001450450190558265</v>
       </c>
       <c r="K9" t="n">
-        <v>5.642539773745693e-05</v>
+        <v>0.0001420523312674066</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002798238484831483</v>
+        <v>0.0004183011835027183</v>
       </c>
       <c r="M9" t="n">
-        <v>0.004617346801623273</v>
+        <v>0.006927943216652722</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000032244333901</v>
+        <v>1.000072590043845</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004813916814193925</v>
+        <v>0.00722288010220514</v>
       </c>
       <c r="P9" t="n">
-        <v>103.5117400968657</v>
+        <v>101.8887692158649</v>
       </c>
       <c r="Q9" t="n">
-        <v>153.4856489164619</v>
+        <v>151.8626780354611</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_8</t>
+          <t>model_24_3_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999778490981884</v>
+        <v>0.9999455504406116</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990303886843537</v>
+        <v>0.9989913525477412</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999946849882938</v>
+        <v>0.9996171907879891</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998884392632571</v>
+        <v>0.9998225278150474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999022535147902</v>
+        <v>0.9997830937413363</v>
       </c>
       <c r="G10" t="n">
-        <v>2.067689452885335e-05</v>
+        <v>5.082627362965019e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009050896021380914</v>
+        <v>0.0009415281221774935</v>
       </c>
       <c r="I10" t="n">
-        <v>6.875508789508346e-07</v>
+        <v>0.0001531260341778033</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001119904636972207</v>
+        <v>0.000151687149447784</v>
       </c>
       <c r="K10" t="n">
-        <v>5.633900728808579e-05</v>
+        <v>0.0001524065918127937</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002708302669441819</v>
+        <v>0.0004218710778663048</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004547185341379142</v>
+        <v>0.007129254773792993</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000031271861381</v>
+        <v>1.000076869966195</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004740768435332957</v>
+        <v>0.007432761909105245</v>
       </c>
       <c r="P10" t="n">
-        <v>103.5729873749016</v>
+        <v>101.7741942792925</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.5468961944978</v>
+        <v>151.7481030988888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_9</t>
+          <t>model_24_3_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999783237967025</v>
+        <v>0.9999692141787491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990279362601111</v>
+        <v>0.9989911591365002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999931752954471</v>
+        <v>0.9999527052212389</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998882872114369</v>
+        <v>0.999913147543548</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999019516893031</v>
+        <v>0.9999337128025658</v>
       </c>
       <c r="G11" t="n">
-        <v>2.023378430282989e-05</v>
+        <v>2.873721279642077e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009073788325194688</v>
+        <v>0.0009417086630811387</v>
       </c>
       <c r="I11" t="n">
-        <v>8.828450196162853e-07</v>
+        <v>1.891820176155268e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001121431012143023</v>
+        <v>7.423361325754377e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>5.65129731169593e-05</v>
+        <v>4.657590750954823e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002626593423110657</v>
+        <v>0.0003681840618691329</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004498197895027507</v>
+        <v>0.005360710101882098</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000030601698773</v>
+        <v>1.000043462335884</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004689695491972138</v>
+        <v>0.005588926629118935</v>
       </c>
       <c r="P11" t="n">
-        <v>103.6163137207446</v>
+        <v>102.9146353239197</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.5902225403409</v>
+        <v>152.888544143516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_10</t>
+          <t>model_24_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999786312529056</v>
+        <v>0.9999426531235047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999025574602917</v>
+        <v>0.9989899872939928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999909521485894</v>
+        <v>0.9995840692511746</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998878364821772</v>
+        <v>0.9998153692612409</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999013097051963</v>
+        <v>0.9997693118935791</v>
       </c>
       <c r="G12" t="n">
-        <v>1.994678743296063e-05</v>
+        <v>5.353079197135108e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009095833358455179</v>
+        <v>0.0009428025266238363</v>
       </c>
       <c r="I12" t="n">
-        <v>1.17043170061717e-06</v>
+        <v>0.0001663748521767816</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001125955666628873</v>
+        <v>0.0001578056328674186</v>
       </c>
       <c r="K12" t="n">
-        <v>5.688299918175221e-05</v>
+        <v>0.0001620902425221002</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002551499786878352</v>
+        <v>0.0004250684770340291</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004466182646618994</v>
+        <v>0.007316474012210463</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000030167642957</v>
+        <v>1.000080960296229</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004656317288158174</v>
+        <v>0.007627951458099399</v>
       </c>
       <c r="P12" t="n">
-        <v>103.6448849170491</v>
+        <v>101.6705070375236</v>
       </c>
       <c r="Q12" t="n">
-        <v>153.6187937366454</v>
+        <v>151.6444158571199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_11</t>
+          <t>model_24_3_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999788123395532</v>
+        <v>0.9999399118267406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990233192711674</v>
+        <v>0.9989886239463737</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999882626152307</v>
+        <v>0.9995531457746533</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998871917342029</v>
+        <v>0.9998088224336711</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999004464274857</v>
+        <v>0.9997565277755756</v>
       </c>
       <c r="G13" t="n">
-        <v>1.977775099626745e-05</v>
+        <v>5.608967217170276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009116885890360452</v>
+        <v>0.0009440751517822332</v>
       </c>
       <c r="I13" t="n">
-        <v>1.518350224033439e-06</v>
+        <v>0.0001787444325686435</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001132427981773891</v>
+        <v>0.0001634012681060237</v>
       </c>
       <c r="K13" t="n">
-        <v>5.738057420071125e-05</v>
+        <v>0.0001710728503373336</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002483071357653324</v>
+        <v>0.0004278868911639872</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004447218343669158</v>
+        <v>0.00748930385093987</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000029911991219</v>
+        <v>1.000084830362248</v>
       </c>
       <c r="O13" t="n">
-        <v>0.004636545635570245</v>
+        <v>0.007808139020870603</v>
       </c>
       <c r="P13" t="n">
-        <v>103.6619058782613</v>
+        <v>101.5771177182892</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.6358146978575</v>
+        <v>151.5510265378854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_12</t>
+          <t>model_24_3_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999788990084664</v>
+        <v>0.9999373362571604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990212174073276</v>
+        <v>0.9989872909289559</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999853132269613</v>
+        <v>0.999524420167583</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998864122842429</v>
+        <v>0.9998028164925805</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998994366873151</v>
+        <v>0.9997446982472299</v>
       </c>
       <c r="G14" t="n">
-        <v>1.969684937011754e-05</v>
+        <v>5.849385332035807e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009136505866693181</v>
+        <v>0.00094531946502912</v>
       </c>
       <c r="I14" t="n">
-        <v>1.89988362584731e-06</v>
+        <v>0.0001902348516912749</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001140252505437137</v>
+        <v>0.0001685346025720077</v>
       </c>
       <c r="K14" t="n">
-        <v>5.79625670847805e-05</v>
+        <v>0.0001793847271316413</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002420360189081805</v>
+        <v>0.0004304210672062287</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004438113266931967</v>
+        <v>0.007648127438815207</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000029789635106</v>
+        <v>1.000088466460479</v>
       </c>
       <c r="O14" t="n">
-        <v>0.004627052936866245</v>
+        <v>0.007973724057691945</v>
       </c>
       <c r="P14" t="n">
-        <v>103.6701037309229</v>
+        <v>101.4931777613874</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.6440125505191</v>
+        <v>151.4670865809837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_13</t>
+          <t>model_24_3_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999789137039415</v>
+        <v>0.999968844603328</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990192529727956</v>
+        <v>0.9989864312169916</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999822300866109</v>
+        <v>0.9999745048615281</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998855542000488</v>
+        <v>0.9999243556919427</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998983434609771</v>
+        <v>0.9999467349409551</v>
       </c>
       <c r="G15" t="n">
-        <v>1.968313178911837e-05</v>
+        <v>2.908219522941503e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009154843000762346</v>
+        <v>0.0009461219684107629</v>
       </c>
       <c r="I15" t="n">
-        <v>2.298719221146825e-06</v>
+        <v>1.0198211857311e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001148866400396319</v>
+        <v>6.465390316925826e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>5.859267963038934e-05</v>
+        <v>3.742605751328464e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002363122549735431</v>
+        <v>0.0003580620865570715</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004436567568415742</v>
+        <v>0.00539279104262487</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000029768888553</v>
+        <v>1.000043984089419</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004625441434764147</v>
+        <v>0.005622373321925831</v>
       </c>
       <c r="P15" t="n">
-        <v>103.6714970867499</v>
+        <v>102.890768837657</v>
       </c>
       <c r="Q15" t="n">
-        <v>153.6454059063462</v>
+        <v>152.8646776572532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_14</t>
+          <t>model_24_3_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999788779040425</v>
+        <v>0.9999349359553723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990174216585486</v>
+        <v>0.998986011132334</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999791271532277</v>
+        <v>0.9994978338169638</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998846420826818</v>
+        <v>0.9997973527077566</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998972009599858</v>
+        <v>0.9997338073968925</v>
       </c>
       <c r="G16" t="n">
-        <v>1.9716549423466e-05</v>
+        <v>6.073442967851608e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009171937515404668</v>
+        <v>0.0009465140989989973</v>
       </c>
       <c r="I16" t="n">
-        <v>2.700115246770278e-06</v>
+        <v>0.0002008695551044806</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001158022708418554</v>
+        <v>0.000173204550966267</v>
       </c>
       <c r="K16" t="n">
-        <v>5.925119304431284e-05</v>
+        <v>0.0001870370530353738</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002324730240585208</v>
+        <v>0.0004326639072239992</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004440332129859882</v>
+        <v>0.007793229733461992</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000029819429587</v>
+        <v>1.000091855121827</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00462936626138268</v>
+        <v>0.008125003657425002</v>
       </c>
       <c r="P16" t="n">
-        <v>103.6681044052528</v>
+        <v>101.4179996203654</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.642013224849</v>
+        <v>151.3919084399616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_15</t>
+          <t>model_24_3_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999788044935674</v>
+        <v>0.999932703327081</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990157327554213</v>
+        <v>0.998984792093097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999760813244254</v>
+        <v>0.9994732840796207</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998837206105464</v>
+        <v>0.9997923775889367</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998960567207772</v>
+        <v>0.9997237934740429</v>
       </c>
       <c r="G17" t="n">
-        <v>1.978507487963581e-05</v>
+        <v>6.281849018736378e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009187702684754471</v>
+        <v>0.0009476520186171055</v>
       </c>
       <c r="I17" t="n">
-        <v>3.094124213430902e-06</v>
+        <v>0.0002106896007081883</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001167272924465095</v>
+        <v>0.0001774568319203976</v>
       </c>
       <c r="K17" t="n">
-        <v>5.991070832997021e-05</v>
+        <v>0.0001940732163142929</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000229158169519022</v>
+        <v>0.0004346800195489684</v>
       </c>
       <c r="M17" t="n">
-        <v>0.004448041690411165</v>
+        <v>0.007925811642183013</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000029923067905</v>
+        <v>1.00009500706765</v>
       </c>
       <c r="O17" t="n">
-        <v>0.004637404033887621</v>
+        <v>0.008263229852482661</v>
       </c>
       <c r="P17" t="n">
-        <v>103.6611653969342</v>
+        <v>101.3505221961819</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.6350742165304</v>
+        <v>151.3244310157781</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_16</t>
+          <t>model_24_3_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999787032029184</v>
+        <v>0.9999306368504302</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990141737100987</v>
+        <v>0.998983638614709</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999731284009554</v>
+        <v>0.9994506911780958</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998827997623772</v>
+        <v>0.999787850528281</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998949234505866</v>
+        <v>0.9997146090720715</v>
       </c>
       <c r="G18" t="n">
-        <v>1.987962525439447e-05</v>
+        <v>6.474745543307844e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000920225568849997</v>
+        <v>0.0009487287400605521</v>
       </c>
       <c r="I18" t="n">
-        <v>3.47611492945e-06</v>
+        <v>0.0002197268999751056</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001176516876816521</v>
+        <v>0.0001813261533377954</v>
       </c>
       <c r="K18" t="n">
-        <v>6.056390130555106e-05</v>
+        <v>0.0002005265266564505</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002261039720917198</v>
+        <v>0.0004366651168748617</v>
       </c>
       <c r="M18" t="n">
-        <v>0.004458657337629173</v>
+        <v>0.008046580356466866</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000030066066468</v>
+        <v>1.000097924446452</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00464847161118512</v>
+        <v>0.008389139940959281</v>
       </c>
       <c r="P18" t="n">
-        <v>103.6516304145922</v>
+        <v>101.2900323129753</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.6255392341884</v>
+        <v>151.2639411325715</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_17</t>
+          <t>model_24_3_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999785885876864</v>
+        <v>0.9999287323573038</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990127369030355</v>
+        <v>0.9989825584244089</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999703036737119</v>
+        <v>0.9994299909103829</v>
       </c>
       <c r="E19" t="n">
-        <v>0.99988189801308</v>
+        <v>0.9997837336484401</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998938211981259</v>
+        <v>0.9997062128785812</v>
       </c>
       <c r="G19" t="n">
-        <v>1.998661354239179e-05</v>
+        <v>6.652521616889939e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009215667651749088</v>
+        <v>0.0009497370502908257</v>
       </c>
       <c r="I19" t="n">
-        <v>3.841522158341088e-06</v>
+        <v>0.0002280071341017855</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001185569104766467</v>
+        <v>0.0001848448893462745</v>
       </c>
       <c r="K19" t="n">
-        <v>6.119921631749387e-05</v>
+        <v>0.00020642601172403</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002232830834920623</v>
+        <v>0.0004390163642749834</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004470639053020473</v>
+        <v>0.008156299171125309</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000030227876207</v>
+        <v>1.00010061314263</v>
       </c>
       <c r="O19" t="n">
-        <v>0.004660963413006197</v>
+        <v>0.008503529712706992</v>
       </c>
       <c r="P19" t="n">
-        <v>103.6408956627745</v>
+        <v>101.2358589833345</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.6148044823707</v>
+        <v>151.2097678029307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_18</t>
+          <t>model_24_3_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999784608465448</v>
+        <v>0.9999269853675236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.999011419012325</v>
+        <v>0.998981551227161</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999676356176367</v>
+        <v>0.9994110906795809</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998810296551893</v>
+        <v>0.9997799966640178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999892765605114</v>
+        <v>0.9996985633447848</v>
       </c>
       <c r="G20" t="n">
-        <v>2.01058542908001e-05</v>
+        <v>6.815595444485491e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009227969583043744</v>
+        <v>0.00095067722471076</v>
       </c>
       <c r="I20" t="n">
-        <v>4.186662376466307e-06</v>
+        <v>0.0002355673424168761</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001194286132429996</v>
+        <v>0.0001880389251591349</v>
       </c>
       <c r="K20" t="n">
-        <v>6.180763780973297e-05</v>
+        <v>0.0002118008652762563</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002207062764628797</v>
+        <v>0.0004411113803760374</v>
       </c>
       <c r="M20" t="n">
-        <v>0.004483955206154506</v>
+        <v>0.008255661962850399</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000030408216642</v>
+        <v>1.000103079481143</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004674846462347383</v>
+        <v>0.008607122584185153</v>
       </c>
       <c r="P20" t="n">
-        <v>103.6289990541159</v>
+        <v>101.1874240620135</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.6029078737121</v>
+        <v>151.1613328816097</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_19</t>
+          <t>model_24_3_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999783290774453</v>
+        <v>0.9999253771782407</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990102219345279</v>
+        <v>0.9989806124093987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999651453014149</v>
+        <v>0.9993937699332608</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998801999891772</v>
+        <v>0.9997766085981608</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998917636516285</v>
+        <v>0.9996915691650634</v>
       </c>
       <c r="G21" t="n">
-        <v>2.022885496121536e-05</v>
+        <v>6.96571285489793e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009239143778824069</v>
+        <v>0.0009515535698825729</v>
       </c>
       <c r="I21" t="n">
-        <v>4.508810134890896e-06</v>
+        <v>0.0002424957472456607</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001202614750913197</v>
+        <v>0.0001909347369853165</v>
       </c>
       <c r="K21" t="n">
-        <v>6.238514261310531e-05</v>
+        <v>0.0002167152421154887</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002183271303746455</v>
+        <v>0.0004430068152534967</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004497649937602453</v>
+        <v>0.008346084623880787</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000030594243607</v>
+        <v>1.000105349866013</v>
       </c>
       <c r="O21" t="n">
-        <v>0.004689124206865072</v>
+        <v>0.008701394725096318</v>
       </c>
       <c r="P21" t="n">
-        <v>103.6168010188279</v>
+        <v>101.1438510296418</v>
       </c>
       <c r="Q21" t="n">
-        <v>153.5907098384241</v>
+        <v>151.117759849238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_20</t>
+          <t>model_24_3_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999781960099845</v>
+        <v>0.9999239095124781</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990091260638115</v>
+        <v>0.998979749660323</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999962819462758</v>
+        <v>0.9993780224755087</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998794078509999</v>
+        <v>0.9997735427457015</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998908128357215</v>
+        <v>0.9996852220189945</v>
       </c>
       <c r="G22" t="n">
-        <v>2.035306759496693e-05</v>
+        <v>7.102713011532316e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009249373250929631</v>
+        <v>0.0009523589082744849</v>
       </c>
       <c r="I22" t="n">
-        <v>4.809681045679646e-06</v>
+        <v>0.0002487948269916989</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001210566645493305</v>
+        <v>0.0001935551499829577</v>
       </c>
       <c r="K22" t="n">
-        <v>6.293317279750508e-05</v>
+        <v>0.0002211749884873283</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002161440130643968</v>
+        <v>0.00044469727416306</v>
       </c>
       <c r="M22" t="n">
-        <v>0.004511437420043298</v>
+        <v>0.008427759495579069</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000030782103551</v>
+        <v>1.000107421864737</v>
       </c>
       <c r="O22" t="n">
-        <v>0.004703498650977447</v>
+        <v>0.008786546665173088</v>
       </c>
       <c r="P22" t="n">
-        <v>103.6045578313373</v>
+        <v>101.1048972792194</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.5784666509335</v>
+        <v>151.0788060988156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_21</t>
+          <t>model_24_3_1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999780660998185</v>
+        <v>0.9999667172391744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990081343089922</v>
+        <v>0.998979415717697</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999606697468485</v>
+        <v>0.9999846189663788</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998786815032676</v>
+        <v>0.9999347337998107</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998899390760219</v>
+        <v>0.9999559259963904</v>
       </c>
       <c r="G23" t="n">
-        <v>2.047433303249424e-05</v>
+        <v>3.106799628636862e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009258630846838431</v>
+        <v>0.0009526706290574571</v>
       </c>
       <c r="I23" t="n">
-        <v>5.087768685885861e-06</v>
+        <v>6.152507844816081e-06</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001217858101405896</v>
+        <v>5.578363654369729e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>6.343678941323771e-05</v>
+        <v>3.096807219425669e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.000214149671858234</v>
+        <v>0.0003512511930251663</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00452485723890757</v>
+        <v>0.005573867264868138</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000030965506139</v>
+        <v>1.000046987427048</v>
       </c>
       <c r="O23" t="n">
-        <v>0.004717489779313625</v>
+        <v>0.00581115833382945</v>
       </c>
       <c r="P23" t="n">
-        <v>103.5926770069625</v>
+        <v>102.7586646538785</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.5665858265588</v>
+        <v>152.7325734734747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_22</t>
+          <t>model_24_3_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999779385819716</v>
+        <v>0.999922571976998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990072265749392</v>
+        <v>0.9989789528940898</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999586864847472</v>
+        <v>0.9993636697614946</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998779915425525</v>
+        <v>0.9997707696568562</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998891156822168</v>
+        <v>0.9996794499441655</v>
       </c>
       <c r="G24" t="n">
-        <v>2.059336534518066e-05</v>
+        <v>7.227566077502886e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00092671041457731</v>
+        <v>0.0009531026545791665</v>
       </c>
       <c r="I24" t="n">
-        <v>5.344323831273384e-06</v>
+        <v>0.000254536000682676</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001224784285533625</v>
+        <v>0.0001959253351600088</v>
       </c>
       <c r="K24" t="n">
-        <v>6.391137619231794e-05</v>
+        <v>0.0002252306679213424</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002123264751957268</v>
+        <v>0.0004462104493533291</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00453799133374896</v>
+        <v>0.008501509323351288</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000031145531334</v>
+        <v>1.000109310150121</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004731183019763737</v>
+        <v>0.00886343617579676</v>
       </c>
       <c r="P24" t="n">
-        <v>103.5810832093338</v>
+        <v>101.070046255184</v>
       </c>
       <c r="Q24" t="n">
-        <v>153.5549920289301</v>
+        <v>151.0439550747803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_23</t>
+          <t>model_24_3_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999778163183541</v>
+        <v>0.9999213536520981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999006405923657</v>
+        <v>0.9989782212169747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999568473566978</v>
+        <v>0.9993506436617954</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998773500770509</v>
+        <v>0.9997682677990344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998883506937656</v>
+        <v>0.9996742171800175</v>
       </c>
       <c r="G25" t="n">
-        <v>2.070749306528863e-05</v>
+        <v>7.341291359070499e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009274764565269482</v>
+        <v>0.0009537856430491578</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5822337695341e-06</v>
+        <v>0.000259746520506025</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001231223649513404</v>
+        <v>0.0001980636966244493</v>
       </c>
       <c r="K25" t="n">
-        <v>6.435229936043726e-05</v>
+        <v>0.0002289074071471549</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002106615578197632</v>
+        <v>0.0004475579139827072</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004550548655413832</v>
+        <v>0.008568133611861161</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000031318138794</v>
+        <v>1.000111030138214</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004744274932609122</v>
+        <v>0.008932896798199788</v>
       </c>
       <c r="P25" t="n">
-        <v>103.5700298787258</v>
+        <v>101.0388214066804</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.5439386983221</v>
+        <v>151.0127302262766</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_24_3_24</t>
+          <t>model_24_3_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999776995009402</v>
+        <v>0.9999622455837816</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999005658821978</v>
+        <v>0.9989693964516733</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999551672005947</v>
+        <v>0.9999787051184051</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998767521472833</v>
+        <v>0.9999436596590406</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998876414569011</v>
+        <v>0.9999596714813522</v>
       </c>
       <c r="G26" t="n">
-        <v>2.081653699359155e-05</v>
+        <v>3.524209031254961e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009281738431502504</v>
+        <v>0.000962023174095586</v>
       </c>
       <c r="I26" t="n">
-        <v>5.799579067963398e-06</v>
+        <v>8.518083328701116e-06</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001237225979175652</v>
+        <v>4.815462051888663e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>6.47610884927643e-05</v>
+        <v>2.833635192379387e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002091572916474551</v>
+        <v>0.0003705572945673551</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00456251432804233</v>
+        <v>0.005936504890299477</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000031483057496</v>
+        <v>1.000053300352308</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004756750008693772</v>
+        <v>0.006189234193738772</v>
       </c>
       <c r="P26" t="n">
-        <v>103.5595256787425</v>
+        <v>102.5065388843626</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.5334344983387</v>
+        <v>152.4804477039588</v>
       </c>
     </row>
   </sheetData>
